--- a/myStudies/RothProblem.xlsx
+++ b/myStudies/RothProblem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkrat\git\MyStudiesRepo\myStudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01307913-42DD-436D-8866-854AD326430D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4950CFA6-B21E-4243-8862-BCE1942769FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="735" activeTab="1" xr2:uid="{61290AE9-9247-4055-A5C3-1005466886B7}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="95">
   <si>
     <t>Interest Income</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Owners and Accounts</t>
   </si>
   <si>
-    <t>Accounts and Use to Pay Priorities</t>
-  </si>
-  <si>
     <t>Outside Incomes and Years</t>
   </si>
   <si>
@@ -214,12 +211,6 @@
     <t>TMK-Ann</t>
   </si>
   <si>
-    <t>TMK-Roth</t>
-  </si>
-  <si>
-    <t>DTK-Roth</t>
-  </si>
-  <si>
     <t>Accounts and Balances</t>
   </si>
   <si>
@@ -341,6 +332,9 @@
   </si>
   <si>
     <t>Current Living Expenses</t>
+  </si>
+  <si>
+    <t>Roth</t>
   </si>
 </sst>
 </file>
@@ -1482,13 +1476,13 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2" s="43">
         <v>2024</v>
@@ -1528,13 +1522,13 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B7" s="44"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B8" s="6">
         <v>29200</v>
@@ -1542,7 +1536,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B9" s="6">
         <v>174.7</v>
@@ -1550,7 +1544,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B10" s="6">
         <v>3000</v>
@@ -1558,7 +1552,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B11" s="12">
         <v>250000</v>
@@ -2028,10 +2022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8746EC-93A7-4CC1-BFC6-CA309B41AD35}">
-  <dimension ref="A1:E278"/>
+  <dimension ref="A1:E269"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2050,7 +2044,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="44"/>
       <c r="D1" s="3"/>
@@ -2066,7 +2060,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B3" s="6">
         <v>-10950</v>
@@ -2076,7 +2070,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B4" s="6">
         <v>-17755</v>
@@ -2084,7 +2078,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" s="6">
         <v>80000</v>
@@ -2114,7 +2108,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="44"/>
     </row>
@@ -2152,7 +2146,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2162,7 +2156,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2175,7 +2169,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="6">
         <f>2634*12</f>
@@ -2184,7 +2178,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="6">
         <f>71065.98-50692.01</f>
@@ -2193,13 +2187,13 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="44"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="10">
         <v>2025</v>
@@ -2214,13 +2208,13 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2236,11 +2230,9 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="7" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,80 +2240,80 @@
         <v>21</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="A29" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="44"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="44"/>
+      <c r="A30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="2">
+        <v>17.2</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="44"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="44"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="6">
+        <v>41925.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="44"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="2">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="44"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="44"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="6">
-        <v>41925.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="44"/>
+      <c r="B36" s="2">
+        <v>73</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -2332,389 +2324,455 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="2">
-        <v>73</v>
-      </c>
+      <c r="A38" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="44"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="44"/>
+      <c r="A39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="6">
+        <f>0.99*B54</f>
+        <v>111182.23710000001</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B40" s="6">
-        <f>0.99*B61</f>
-        <v>111182.23710000001</v>
-      </c>
+        <f>B53-193342.75</f>
+        <v>-193342.75</v>
+      </c>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B41" s="6">
-        <f>B60-193342.75</f>
-        <v>-193342.75</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>130000</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B42" s="6">
         <v>130000</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="6">
-        <v>130000</v>
-      </c>
+      <c r="A43" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="44"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="44"/>
+      <c r="A44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B45" s="8">
-        <v>0.01</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B46" s="8">
-        <v>0.99</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B47" s="8">
         <v>0.2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="8">
-        <v>0.2</v>
-      </c>
+      <c r="A48" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="44"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="44"/>
+      <c r="A49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B50" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B51" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="A53" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="44"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="1"/>
+      <c r="A54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="6">
+        <f>22395.01+124910.28-35000</f>
+        <v>112305.29000000001</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="2">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="B55" s="6">
+        <v>310024.56999999995</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="2">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B56" s="6">
+        <v>185222.04</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="2">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="B57" s="6">
+        <v>162612.93</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" s="2">
-        <v>3</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B58" s="7">
+        <v>649728.07000000007</v>
+      </c>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="6">
+        <v>40610.959999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="44"/>
+      <c r="B60" s="6">
+        <v>1970046.2100000002</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B61" s="6">
-        <f>22395.01+124910.28-35000</f>
-        <v>112305.29000000001</v>
-      </c>
+        <v>1009000</v>
+      </c>
+      <c r="C61" s="6"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="6">
-        <v>40610.959999999999</v>
-      </c>
+      <c r="A62" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="44"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="6">
-        <v>1970046.2100000002</v>
+        <v>88</v>
+      </c>
+      <c r="B63" s="8">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="6">
-        <v>1009000</v>
-      </c>
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="B64" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="6">
-        <v>310024.56999999995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="B65" s="8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" s="8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="6">
-        <v>185222.04</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="B68" s="8">
+        <v>7.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="6">
-        <v>162612.93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="B69" s="8">
+        <v>7.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="8">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="44"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="7">
-        <v>259136.76</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="B73" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B69" s="7">
-        <v>390591.31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B70" s="44"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B72" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B73" s="8">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" s="8">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" s="8">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="44"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B76" s="8">
-        <v>7.7499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B77" s="8">
-        <v>7.7499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>2825.26</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="27">
+        <v>2825.26</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" s="8">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="B78" s="6">
+        <v>2825.26</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="18">
+        <v>2825.26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" s="8">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B80" s="44"/>
+        <v>57</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D79" s="20"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="6">
+        <v>2825.26</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" s="22">
+        <v>2825.26</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B81" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B82" s="6">
+        <v>0</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="B83" s="6">
         <v>0</v>
       </c>
+      <c r="C83" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" s="44"/>
+      <c r="A84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="6">
+        <v>0</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B85" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="B85" s="6">
+        <v>0</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>2825.26</v>
-      </c>
-      <c r="B86" s="6"/>
+      <c r="A86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="6">
+        <v>0</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B87" s="6">
-        <v>2825.26</v>
+        <v>0</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2723,137 +2781,133 @@
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="26" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B89" s="6">
-        <v>2825.26</v>
-      </c>
+      <c r="A89" s="2">
+        <v>75436.960000000006</v>
+      </c>
+      <c r="B89" s="6"/>
       <c r="C89" s="27">
-        <v>2825.26</v>
+        <v>75436.960000000006</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B90" s="6">
-        <v>0</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D90" s="18">
-        <v>2825.26</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B91" s="6">
-        <v>0</v>
+        <v>75436.960000000006</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D91" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="D91" s="23">
+        <v>75436.960000000006</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="6">
-        <v>0</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D92" s="22">
-        <v>2825.26</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="6">
-        <v>0</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="22">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B94" s="6">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="23">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" s="6">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D95" s="23">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" s="6">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="23">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B97" s="6"/>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="18">
-        <v>0</v>
-      </c>
+      <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>75436.960000000006</v>
-      </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="19" t="s">
-        <v>3</v>
+      <c r="A98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="6">
+        <v>0</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="D98" s="23">
         <v>0</v>
@@ -2861,449 +2915,420 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B99" s="6"/>
       <c r="C99" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" s="23">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D99" s="25"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" s="6">
-        <v>75436.960000000006</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>63</v>
-      </c>
+      <c r="A100" s="2"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="2"/>
       <c r="D100" s="2"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="27">
-        <v>75436.960000000006</v>
-      </c>
-      <c r="D101" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="B101" s="6">
+        <v>2825.26</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D101" s="29">
+        <v>2825.26</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>64</v>
+        <v>12</v>
+      </c>
+      <c r="B102" s="6">
+        <v>1493.86</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="31">
+        <v>1493.86</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="23">
-        <v>75436.960000000006</v>
+        <v>13</v>
+      </c>
+      <c r="B103" s="6">
+        <v>1331.4</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="31">
+        <v>1331.4</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D104" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B104" s="6">
+        <v>0</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="32" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>64</v>
+        <v>15</v>
+      </c>
+      <c r="B105" s="6">
+        <v>0</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="32" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B106" s="6"/>
-      <c r="C106" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="20" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="B106" s="6">
+        <v>0</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B107" s="6">
         <v>0</v>
       </c>
-      <c r="C107" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D107" s="20" t="s">
+      <c r="C107" s="30" t="s">
         <v>64</v>
+      </c>
+      <c r="D107" s="32" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="6">
+        <v>0</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D108" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109" s="6">
+        <v>0</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D109" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B110" s="6">
-        <v>2825.26</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D110" s="23">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D110" s="32" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B111" s="6">
-        <v>1493.86</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" s="32" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B112" s="6">
-        <v>1331.4</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B113" s="6">
         <v>0</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D113" s="29">
-        <v>2825.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B114" s="6">
         <v>0</v>
       </c>
-      <c r="C114" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="31">
-        <v>1493.86</v>
+      <c r="C114" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B115" s="6">
         <v>0</v>
       </c>
-      <c r="C115" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="31">
-        <v>1331.4</v>
+      <c r="C115" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B116" s="6">
-        <v>0</v>
-      </c>
-      <c r="C116" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" s="32" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D116" s="34" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B117" s="6">
         <v>0</v>
       </c>
-      <c r="C117" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C117" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B118" s="6">
         <v>0</v>
       </c>
-      <c r="C118" s="28" t="s">
-        <v>16</v>
+      <c r="C118" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="D118" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B119" s="6">
         <v>0</v>
       </c>
-      <c r="C119" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D119" s="32" t="s">
-        <v>66</v>
+      <c r="C119" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D119" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B120" s="6">
         <v>0</v>
       </c>
-      <c r="C120" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D120" s="32" t="s">
-        <v>66</v>
+      <c r="C120" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B121" s="6">
-        <v>0</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D121" s="32" t="s">
-        <v>66</v>
-      </c>
+      <c r="A121" s="2"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="36"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B122" s="6">
-        <v>0</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D122" s="32" t="s">
-        <v>66</v>
+        <f>B87+B119</f>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B123" s="6">
-        <v>0</v>
-      </c>
-      <c r="C123" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D123" s="32" t="s">
-        <v>66</v>
+        <f>SUM(B82:B84)+B102+B112-B114-B115+B117+B118+B120</f>
+        <v>1493.86</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B124" s="6">
-        <v>0</v>
-      </c>
-      <c r="C124" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" s="29">
-        <v>0</v>
+        <f>B91+B103+B106</f>
+        <v>76768.36</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B125" s="7" t="s">
+      <c r="A125" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B125" s="46"/>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C125" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D125" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B126" s="6">
-        <v>0</v>
-      </c>
-      <c r="C126" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B127" s="6">
-        <v>0</v>
-      </c>
-      <c r="C127" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D127" s="29">
-        <v>0</v>
-      </c>
+      <c r="B126" s="6"/>
+      <c r="C126" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>959.88</v>
+      </c>
+      <c r="B127" s="6"/>
+      <c r="C127" s="38">
+        <v>959.88</v>
+      </c>
+      <c r="D127" s="2"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B128" s="6">
-        <v>0</v>
-      </c>
-      <c r="C128" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D128" s="34" t="s">
-        <v>74</v>
+        <v>959.88</v>
+      </c>
+      <c r="C128" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D128" s="40">
+        <v>959.88</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B129" s="6">
-        <v>0</v>
-      </c>
-      <c r="C129" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="29">
-        <v>0</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B129" s="6"/>
+      <c r="C129" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D129" s="34"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D130" s="29">
-        <v>0</v>
+      <c r="A130" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B130" s="6">
+        <v>959.88</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D130" s="31">
+        <v>959.88</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B131" s="6">
-        <f>B96+B128</f>
-        <v>0</v>
-      </c>
-      <c r="C131" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D131" s="29">
+        <v>0</v>
+      </c>
+      <c r="C131" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B132" s="6">
-        <f>SUM(B91:B93)+B111+B121-B123-B124+B126+B127+B129</f>
-        <v>1493.86</v>
+        <v>0</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D132" s="29">
         <v>0</v>
@@ -3311,39 +3336,72 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="B133" s="6">
-        <f>B100+B112+B115</f>
-        <v>76768.36</v>
-      </c>
-      <c r="C133" s="35"/>
-      <c r="D133" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="C133" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B134" s="46"/>
-    </row>
-    <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="6">
+        <v>0</v>
+      </c>
+      <c r="C134" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B135" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="B135" s="6">
+        <v>0</v>
+      </c>
+      <c r="C135" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D135" s="40">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>959.88</v>
-      </c>
-      <c r="B136" s="6"/>
+      <c r="A136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="6">
+        <v>0</v>
+      </c>
+      <c r="C136" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B137" s="6">
-        <v>959.88</v>
+        <v>0</v>
+      </c>
+      <c r="C137" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -3352,385 +3410,393 @@
       </c>
       <c r="B138" s="6"/>
       <c r="C138" s="37" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D138" s="2"/>
     </row>
     <row r="139" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B139" s="6">
-        <v>959.88</v>
-      </c>
-      <c r="C139" s="38">
-        <v>959.88</v>
+      <c r="A139" s="2">
+        <v>-793.79</v>
+      </c>
+      <c r="B139" s="6"/>
+      <c r="C139" s="41">
+        <v>-793.79</v>
       </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B140" s="6">
-        <v>0</v>
-      </c>
-      <c r="C140" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D140" s="40">
-        <v>959.88</v>
+        <v>-778.09</v>
+      </c>
+      <c r="C140" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" s="42">
+        <v>-778.09</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B141" s="6">
-        <v>0</v>
+        <v>-15.7</v>
       </c>
       <c r="C141" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D141" s="34"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D141" s="42">
+        <v>-15.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B142" s="6">
-        <v>0</v>
-      </c>
-      <c r="C142" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D142" s="31">
-        <v>959.88</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B142" s="6"/>
+      <c r="C142" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D142" s="2"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B143" s="6">
-        <v>0</v>
-      </c>
-      <c r="C143" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D143" s="31">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C143" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B144" s="6">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D144" s="29">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D144" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B145" s="6">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C145" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D145" s="29">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B146" s="6">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C146" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D146" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B147" s="6"/>
-      <c r="C147" s="39" t="s">
+      <c r="C147" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D147" s="40">
-        <v>0</v>
-      </c>
+      <c r="D147" s="2"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
-        <v>-793.79</v>
-      </c>
-      <c r="B148" s="6"/>
-      <c r="C148" s="28" t="s">
-        <v>3</v>
+      <c r="A148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="6">
+        <v>0</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>10</v>
       </c>
       <c r="D148" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B149" s="6">
-        <v>-778.09</v>
-      </c>
-      <c r="C149" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D149" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B150" s="6">
-        <v>-15.7</v>
-      </c>
-      <c r="C150" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="6"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="6"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B151" s="6"/>
-      <c r="C151" s="41">
-        <v>-793.79</v>
-      </c>
-      <c r="D151" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="B151" s="6">
+        <v>959.88</v>
+      </c>
+      <c r="C151" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D151" s="29">
+        <v>959.88</v>
+      </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C152" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D152" s="42">
-        <v>-778.09</v>
+        <v>12</v>
+      </c>
+      <c r="B152" s="6">
+        <v>110.77</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="31">
+        <v>110.77</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C153" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D153" s="42">
-        <v>-15.7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B153" s="6">
+        <v>849.11</v>
+      </c>
+      <c r="C153" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="31">
+        <v>849.11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C154" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D154" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B154" s="6">
+        <v>0</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="32" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C155" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D155" s="20" t="s">
-        <v>64</v>
+        <v>15</v>
+      </c>
+      <c r="B155" s="6">
+        <v>0</v>
+      </c>
+      <c r="C155" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="32" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B156" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B156" s="6">
+        <v>0</v>
+      </c>
       <c r="C156" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="20" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="D156" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B157" s="6">
         <v>0</v>
       </c>
-      <c r="C157" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D157" s="20" t="s">
+      <c r="C157" s="30" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="37" t="s">
+      <c r="D157" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D159" s="2"/>
+      <c r="B158" s="6">
+        <v>0</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D158" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B159" s="6">
+        <v>0</v>
+      </c>
+      <c r="C159" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D159" s="32" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B160" s="6">
-        <v>959.88</v>
-      </c>
-      <c r="C160" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D160" s="29">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C160" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D160" s="32" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B161" s="6">
-        <v>110.77</v>
+        <v>0</v>
+      </c>
+      <c r="C161" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" s="32" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B162" s="6">
-        <v>849.11</v>
+        <v>0</v>
+      </c>
+      <c r="C162" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B163" s="6">
         <v>0</v>
       </c>
       <c r="C163" s="28" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D163" s="29">
-        <v>959.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B164" s="6">
         <v>0</v>
       </c>
-      <c r="C164" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="31">
-        <v>110.77</v>
+      <c r="C164" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B165" s="6">
-        <v>0</v>
-      </c>
-      <c r="C165" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D165" s="31">
-        <v>849.11</v>
+        <v>0.34</v>
+      </c>
+      <c r="C165" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="29">
+        <v>0.34</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B166" s="6">
-        <v>0</v>
-      </c>
-      <c r="C166" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" s="32" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D166" s="34" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B167" s="6">
         <v>0</v>
       </c>
-      <c r="C167" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D167" s="32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C167" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B168" s="6">
         <v>0</v>
       </c>
-      <c r="C168" s="28" t="s">
-        <v>16</v>
+      <c r="C168" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="D168" s="29">
         <v>0</v>
@@ -3738,231 +3804,223 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B169" s="6">
         <v>0</v>
       </c>
-      <c r="C169" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D169" s="32" t="s">
-        <v>66</v>
+      <c r="C169" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D169" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B170" s="6">
         <v>0</v>
       </c>
-      <c r="C170" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D170" s="32" t="s">
-        <v>66</v>
+      <c r="C170" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D170" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B171" s="6">
-        <v>0</v>
-      </c>
-      <c r="C171" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D171" s="32" t="s">
-        <v>66</v>
-      </c>
+      <c r="A171" s="2"/>
+      <c r="B171" s="6"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B172" s="6">
-        <v>0</v>
-      </c>
-      <c r="C172" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D172" s="32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <f>B137+B169</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B173" s="6">
-        <v>0</v>
-      </c>
-      <c r="C173" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D173" s="32" t="s">
-        <v>66</v>
+        <f>SUM(B132:B134)+B152+B162-B164-B165+B167+B168+B170</f>
+        <v>110.42999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B174" s="6">
-        <v>0.34</v>
-      </c>
-      <c r="C174" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D174" s="29">
-        <v>0</v>
+        <f>B141+B153+B156</f>
+        <v>833.41</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C175" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D175" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B175" s="44"/>
+    </row>
+    <row r="176" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B176" s="6">
-        <v>0</v>
-      </c>
-      <c r="C176" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D176" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B177" s="6">
-        <v>0</v>
-      </c>
-      <c r="C177" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D177" s="29">
-        <v>0.34</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B176" s="6"/>
+      <c r="C176" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D176" s="2"/>
+    </row>
+    <row r="177" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>2726.86</v>
+      </c>
+      <c r="B177" s="6"/>
+      <c r="C177" s="38">
+        <v>2726.86</v>
+      </c>
+      <c r="D177" s="2"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B178" s="6">
-        <v>0</v>
-      </c>
-      <c r="C178" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D178" s="34" t="s">
-        <v>78</v>
+        <v>2697.68</v>
+      </c>
+      <c r="C178" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D178" s="40">
+        <v>2697.68</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B179" s="6">
-        <v>0</v>
-      </c>
-      <c r="C179" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D179" s="29">
-        <v>0</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B179" s="6"/>
+      <c r="C179" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D179" s="34"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D180" s="29">
-        <v>0</v>
+      <c r="A180" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B180" s="6">
+        <v>2697.68</v>
+      </c>
+      <c r="C180" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D180" s="31">
+        <v>2697.68</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B181" s="6">
-        <f>B146+B178</f>
-        <v>0</v>
-      </c>
-      <c r="C181" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D181" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C181" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B182" s="6">
-        <f>SUM(B141:B143)+B161+B171-B173-B174+B176+B177+B179</f>
-        <v>110.42999999999999</v>
+        <v>0</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D182" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="B183" s="6">
-        <f>B150+B162+B165</f>
-        <v>833.41</v>
+        <v>0</v>
+      </c>
+      <c r="C183" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D183" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B184" s="44"/>
+      <c r="A184" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B184" s="6">
+        <v>0</v>
+      </c>
+      <c r="C184" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B185" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="B185" s="6">
+        <v>29.18</v>
+      </c>
+      <c r="C185" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D185" s="40">
+        <v>29.18</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
-        <v>2726.86</v>
-      </c>
-      <c r="B186" s="6"/>
+      <c r="A186" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186" s="6">
+        <v>29.18</v>
+      </c>
+      <c r="C186" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186" s="29">
+        <v>29.18</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B187" s="6">
-        <v>2697.68</v>
+        <v>0</v>
+      </c>
+      <c r="C187" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -3971,385 +4029,393 @@
       </c>
       <c r="B188" s="6"/>
       <c r="C188" s="37" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D188" s="2"/>
     </row>
     <row r="189" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B189" s="6">
-        <v>2697.68</v>
-      </c>
-      <c r="C189" s="38">
-        <v>2726.86</v>
+      <c r="A189" s="2">
+        <v>-1597.81</v>
+      </c>
+      <c r="B189" s="6"/>
+      <c r="C189" s="41">
+        <v>-1597.81</v>
       </c>
       <c r="D189" s="2"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B190" s="6">
-        <v>0</v>
-      </c>
-      <c r="C190" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D190" s="40">
-        <v>2697.68</v>
+        <v>-1447.99</v>
+      </c>
+      <c r="C190" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190" s="42">
+        <v>-1447.99</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B191" s="6">
-        <v>0</v>
+        <v>-149.82</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D191" s="34"/>
-    </row>
-    <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D191" s="42">
+        <v>-149.82</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B192" s="6">
-        <v>0</v>
-      </c>
-      <c r="C192" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D192" s="31">
-        <v>2697.68</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B192" s="6"/>
+      <c r="C192" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D192" s="2"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B193" s="6">
-        <v>0</v>
-      </c>
-      <c r="C193" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D193" s="31">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C193" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B194" s="6">
-        <v>29.18</v>
+        <v>8</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D194" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D194" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B195" s="6">
-        <v>29.18</v>
+        <v>32</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C195" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D195" s="29">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="D195" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B196" s="6">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D196" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D196" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B197" s="6"/>
-      <c r="C197" s="39" t="s">
+      <c r="C197" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D197" s="40">
-        <v>29.18</v>
-      </c>
+      <c r="D197" s="2"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
-        <v>-1597.81</v>
-      </c>
-      <c r="B198" s="6"/>
-      <c r="C198" s="28" t="s">
-        <v>3</v>
+      <c r="A198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" s="6">
+        <v>0</v>
+      </c>
+      <c r="C198" s="33" t="s">
+        <v>10</v>
       </c>
       <c r="D198" s="29">
-        <v>29.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B199" s="6">
-        <v>-1447.99</v>
-      </c>
-      <c r="C199" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D199" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B200" s="6">
-        <v>-149.82</v>
-      </c>
-      <c r="C200" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D200" s="2"/>
-    </row>
-    <row r="201" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+      <c r="B199" s="6"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="2"/>
+      <c r="B200" s="6"/>
+    </row>
+    <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B201" s="6"/>
-      <c r="C201" s="41">
-        <v>-1597.81</v>
-      </c>
-      <c r="D201" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="B201" s="6">
+        <v>2697.68</v>
+      </c>
+      <c r="C201" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D201" s="29">
+        <v>2697.68</v>
+      </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C202" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D202" s="42">
-        <v>-1447.99</v>
+        <v>12</v>
+      </c>
+      <c r="B202" s="6">
+        <v>2697.68</v>
+      </c>
+      <c r="C202" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="31">
+        <v>2697.68</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C203" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D203" s="42">
-        <v>-149.82</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B203" s="6">
+        <v>0</v>
+      </c>
+      <c r="C203" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C204" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D204" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B204" s="6">
+        <v>0</v>
+      </c>
+      <c r="C204" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D204" s="32" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C205" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D205" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B205" s="6">
+        <v>0</v>
+      </c>
+      <c r="C205" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B206" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B206" s="6">
+        <v>0</v>
+      </c>
       <c r="C206" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="20" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="D206" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B207" s="6">
         <v>0</v>
       </c>
-      <c r="C207" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D207" s="20" t="s">
+      <c r="C207" s="30" t="s">
         <v>64</v>
       </c>
+      <c r="D207" s="32" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
-      <c r="B208" s="6"/>
-      <c r="C208" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A209" s="2"/>
-      <c r="B209" s="6"/>
-      <c r="C209" s="37" t="s">
+      <c r="A208" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D209" s="2"/>
-    </row>
-    <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="6">
+        <v>0</v>
+      </c>
+      <c r="C208" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D208" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B209" s="6">
+        <v>0</v>
+      </c>
+      <c r="C209" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D209" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B210" s="6">
-        <v>2697.68</v>
-      </c>
-      <c r="C210" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D210" s="29">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C210" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D210" s="32" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B211" s="6">
-        <v>2697.68</v>
+        <v>0</v>
+      </c>
+      <c r="C211" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" s="32" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B212" s="6">
-        <v>0</v>
+        <v>29.18</v>
+      </c>
+      <c r="C212" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D212" s="29">
+        <v>29.18</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B213" s="6">
         <v>0</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D213" s="29">
-        <v>2697.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B214" s="6">
         <v>0</v>
       </c>
-      <c r="C214" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214" s="31">
-        <v>2697.68</v>
+      <c r="C214" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D214" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B215" s="6">
-        <v>0</v>
-      </c>
-      <c r="C215" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D215" s="31">
-        <v>0</v>
+        <v>400.99</v>
+      </c>
+      <c r="C215" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D215" s="29">
+        <v>400.99</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B216" s="6">
-        <v>0</v>
-      </c>
-      <c r="C216" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D216" s="32" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C216" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D216" s="34" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B217" s="6">
         <v>0</v>
       </c>
-      <c r="C217" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D217" s="32" t="s">
-        <v>66</v>
+      <c r="C217" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D217" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B218" s="6">
         <v>0</v>
       </c>
-      <c r="C218" s="28" t="s">
-        <v>16</v>
+      <c r="C218" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="D218" s="29">
         <v>0</v>
@@ -4357,296 +4423,151 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B219" s="6">
         <v>0</v>
       </c>
-      <c r="C219" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D219" s="32" t="s">
-        <v>66</v>
+      <c r="C219" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D219" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B220" s="6">
         <v>0</v>
       </c>
-      <c r="C220" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D220" s="32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B221" s="6">
-        <v>29.18</v>
-      </c>
-      <c r="C221" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D221" s="32" t="s">
-        <v>66</v>
-      </c>
+      <c r="C220" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D220" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2"/>
+      <c r="B221" s="6"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B222" s="6">
-        <v>0</v>
-      </c>
-      <c r="C222" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D222" s="32" t="s">
-        <v>66</v>
+        <f>B187+B219</f>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B223" s="6">
-        <v>0</v>
-      </c>
-      <c r="C223" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D223" s="32" t="s">
-        <v>66</v>
+        <f>SUM(B182:B184)+B202+B212-B214-B215+B217+B218+B220</f>
+        <v>2325.87</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B224" s="6">
-        <v>400.99</v>
-      </c>
-      <c r="C224" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D224" s="29">
-        <v>29.18</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C225" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D225" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B226" s="6">
-        <v>0</v>
-      </c>
-      <c r="C226" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D226" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B227" s="6">
-        <v>0</v>
-      </c>
-      <c r="C227" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D227" s="29">
-        <v>400.99</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B228" s="6">
-        <v>0</v>
-      </c>
-      <c r="C228" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D228" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B229" s="6">
-        <v>0</v>
-      </c>
-      <c r="C229" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D229" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="2"/>
-      <c r="B230" s="6"/>
-      <c r="C230" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D230" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B231" s="6">
-        <f>B196+B228</f>
-        <v>0</v>
-      </c>
-      <c r="C231" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D231" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B232" s="6">
-        <f>SUM(B191:B193)+B211+B221-B223-B224+B226+B227+B229</f>
-        <v>2325.87</v>
-      </c>
-      <c r="C232" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D232" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B233" s="6">
-        <f>B200+B212+B215</f>
+        <f>B191+B203+B206</f>
         <v>-149.82</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="49" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B234" s="49"/>
-    </row>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B225" s="49"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A35:B35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C91" r:id="rId1" display="javascript:void(0)" xr:uid="{A257D570-DBB8-454F-81AF-82A36960D024}"/>
-    <hyperlink ref="C94" r:id="rId2" display="javascript:void(0)" xr:uid="{4E81643A-479C-4878-A872-163E32672FD7}"/>
-    <hyperlink ref="C95" r:id="rId3" display="javascript:void(0)" xr:uid="{E3BC3C81-26BC-432C-9031-807B6FD23DF3}"/>
-    <hyperlink ref="C96" r:id="rId4" display="javascript:void(0)" xr:uid="{349A0052-9C81-4AA5-AA68-511CEA6F42AB}"/>
-    <hyperlink ref="C98" r:id="rId5" display="javascript:void(0)" xr:uid="{D34A4B47-89EC-4C5B-A5F8-9B6E4D64318E}"/>
-    <hyperlink ref="C99" r:id="rId6" display="javascript:void(0)" xr:uid="{81926179-9CF2-4F63-B349-CD502C41FD83}"/>
-    <hyperlink ref="C102" r:id="rId7" display="javascript:void(0)" xr:uid="{A8AF1ACF-1F4E-4264-B9BE-819A706CC71B}"/>
-    <hyperlink ref="C103" r:id="rId8" display="javascript:void(0)" xr:uid="{7490CBC3-5847-4C5D-B368-3121F54B7595}"/>
-    <hyperlink ref="C105" r:id="rId9" display="javascript:void(0)" xr:uid="{2D2B76B1-1A6D-460B-8203-F16AF32BA3AA}"/>
-    <hyperlink ref="C106" r:id="rId10" display="javascript:void(0)" xr:uid="{1B07C2FC-4235-47FF-A34A-52B322F5D0FA}"/>
-    <hyperlink ref="C107" r:id="rId11" display="javascript:void(0)" xr:uid="{0C999BCD-5E9F-4CC9-AA58-E8A49311C87D}"/>
-    <hyperlink ref="C108" r:id="rId12" display="javascript:void(0)" xr:uid="{C1D3A208-A1A1-4841-9DBC-04DCEC7E2AE3}"/>
-    <hyperlink ref="C111" r:id="rId13" display="javascript:void(0)" xr:uid="{594AE27F-CCAE-4388-B2B6-D114C030ECB7}"/>
-    <hyperlink ref="C113" r:id="rId14" display="javascript:void(0)" xr:uid="{39BA5D8A-8187-4E16-AB55-E0B461A12BBD}"/>
-    <hyperlink ref="C118" r:id="rId15" display="javascript:void(0)" xr:uid="{F9AF438E-E641-492B-99AE-CCD21DD17A18}"/>
-    <hyperlink ref="C124" r:id="rId16" display="javascript:void(0)" xr:uid="{E8ABA0E6-5B3E-4E0B-9FFF-73D9318A53A9}"/>
-    <hyperlink ref="C125" r:id="rId17" display="javascript:void(0)" xr:uid="{73F83D89-7702-46CF-B660-3BFDAC6B0C71}"/>
-    <hyperlink ref="C127" r:id="rId18" display="javascript:void(0)" xr:uid="{5370EF61-2DC0-4749-B758-4FFC5DA0C25E}"/>
-    <hyperlink ref="C132" r:id="rId19" display="javascript:void(0)" xr:uid="{676D3279-E95E-4DE4-BFAC-45D8120E0F9F}"/>
-    <hyperlink ref="C141" r:id="rId20" display="javascript:void(0)" xr:uid="{F10791D2-4F97-4691-BC44-50A7700634DF}"/>
-    <hyperlink ref="C144" r:id="rId21" display="javascript:void(0)" xr:uid="{7D13C19D-8CF9-4804-AF57-77909E2F8196}"/>
-    <hyperlink ref="C145" r:id="rId22" display="javascript:void(0)" xr:uid="{804816A2-C16C-46D2-846A-795BE08C79EF}"/>
-    <hyperlink ref="C146" r:id="rId23" display="javascript:void(0)" xr:uid="{19D952FF-DB00-4D38-B979-B1CD092C1EB4}"/>
-    <hyperlink ref="C148" r:id="rId24" display="javascript:void(0)" xr:uid="{4F63E1A9-396E-401D-B4FE-684160547AFB}"/>
-    <hyperlink ref="C149" r:id="rId25" display="javascript:void(0)" xr:uid="{C95123F8-B396-463E-93EA-DB3BD35D7CE2}"/>
-    <hyperlink ref="C152" r:id="rId26" display="javascript:void(0)" xr:uid="{BA258FB5-DE9F-498E-A562-611800123AA5}"/>
-    <hyperlink ref="C153" r:id="rId27" display="javascript:void(0)" xr:uid="{080567E8-ECAC-43C4-91F1-A02E9125D40C}"/>
-    <hyperlink ref="C155" r:id="rId28" display="javascript:void(0)" xr:uid="{E16B25F9-8B5A-4D1A-9388-5BC3E47FC9DB}"/>
-    <hyperlink ref="C156" r:id="rId29" display="javascript:void(0)" xr:uid="{4634380D-0E6A-4EED-A1F7-EFBF55C7BF0F}"/>
-    <hyperlink ref="C157" r:id="rId30" display="javascript:void(0)" xr:uid="{D98693B3-2089-4B12-8641-6C6DDEA9C2A7}"/>
-    <hyperlink ref="C158" r:id="rId31" display="javascript:void(0)" xr:uid="{1499C596-5845-4CDE-9B83-D5E431B51EBF}"/>
-    <hyperlink ref="C163" r:id="rId32" display="javascript:void(0)" xr:uid="{2B32E2E0-0015-4767-BAB2-DC680CFB200F}"/>
-    <hyperlink ref="C168" r:id="rId33" display="javascript:void(0)" xr:uid="{E667DAD1-F258-48E9-8884-EE4DC5745C4C}"/>
-    <hyperlink ref="C174" r:id="rId34" display="javascript:void(0)" xr:uid="{B42BD891-9AA7-42CD-9E24-0ADC6D3829EB}"/>
-    <hyperlink ref="C175" r:id="rId35" display="javascript:void(0)" xr:uid="{74434734-1B78-4167-B859-494F1FDBBE6C}"/>
-    <hyperlink ref="C177" r:id="rId36" display="javascript:void(0)" xr:uid="{A1B6AC30-E543-4E49-A5A6-6F525912BAC5}"/>
-    <hyperlink ref="C182" r:id="rId37" display="javascript:void(0)" xr:uid="{FD188376-9528-41C1-96F1-642D130DFA29}"/>
-    <hyperlink ref="C191" r:id="rId38" display="javascript:void(0)" xr:uid="{89E839B9-A152-43C1-8C7B-B5D845CA50E1}"/>
-    <hyperlink ref="C194" r:id="rId39" display="javascript:void(0)" xr:uid="{0E75E7B5-CE82-461F-BD5F-43D0F10307BA}"/>
-    <hyperlink ref="C195" r:id="rId40" display="javascript:void(0)" xr:uid="{BAC240C9-3082-4E4F-9B49-FB03F056DC29}"/>
-    <hyperlink ref="C196" r:id="rId41" display="javascript:void(0)" xr:uid="{B60A7BDE-2DE2-4BED-A93F-0EC54B60270B}"/>
-    <hyperlink ref="C198" r:id="rId42" display="javascript:void(0)" xr:uid="{02A99FBE-C031-4C3A-9A3D-261244E7ABC3}"/>
-    <hyperlink ref="C199" r:id="rId43" display="javascript:void(0)" xr:uid="{4853FF40-5A59-4D5A-BCF1-46845C129BE2}"/>
-    <hyperlink ref="C202" r:id="rId44" display="javascript:void(0)" xr:uid="{FE3D209F-F888-4C74-8D9A-D523CD3F0B66}"/>
-    <hyperlink ref="C203" r:id="rId45" display="javascript:void(0)" xr:uid="{BBCE26DA-A4A8-4F3C-A06A-AC38C9E3CDAC}"/>
-    <hyperlink ref="C205" r:id="rId46" display="javascript:void(0)" xr:uid="{A9F81F5E-D98C-4EDD-945A-970095EF45E6}"/>
-    <hyperlink ref="C206" r:id="rId47" display="javascript:void(0)" xr:uid="{710A790C-135A-44C2-B3E7-493BF21AA574}"/>
-    <hyperlink ref="C207" r:id="rId48" display="javascript:void(0)" xr:uid="{8C87762C-34DC-4C51-804E-89BCE75DEBF3}"/>
-    <hyperlink ref="C208" r:id="rId49" display="javascript:void(0)" xr:uid="{D6124AC8-262C-42B3-94F4-7531002CB9E2}"/>
-    <hyperlink ref="C213" r:id="rId50" display="javascript:void(0)" xr:uid="{62F015C0-A86A-428B-869F-F5670CD8F60F}"/>
-    <hyperlink ref="C218" r:id="rId51" display="javascript:void(0)" xr:uid="{FD283BE5-E0DD-4052-88B7-00DFBDEDE268}"/>
-    <hyperlink ref="C224" r:id="rId52" display="javascript:void(0)" xr:uid="{9087F27F-D50F-4C92-A71D-9566A7E913A9}"/>
-    <hyperlink ref="C225" r:id="rId53" display="javascript:void(0)" xr:uid="{A37D6D28-9F6F-44C6-B371-B7CEE3F3299D}"/>
-    <hyperlink ref="C227" r:id="rId54" display="javascript:void(0)" xr:uid="{B2612587-A888-489F-9430-2D07FADFFE2E}"/>
-    <hyperlink ref="C232" r:id="rId55" display="javascript:void(0)" xr:uid="{128452FB-70AE-411C-A23A-6ED45E829012}"/>
+    <hyperlink ref="C79" r:id="rId1" display="javascript:void(0)" xr:uid="{A257D570-DBB8-454F-81AF-82A36960D024}"/>
+    <hyperlink ref="C82" r:id="rId2" display="javascript:void(0)" xr:uid="{4E81643A-479C-4878-A872-163E32672FD7}"/>
+    <hyperlink ref="C83" r:id="rId3" display="javascript:void(0)" xr:uid="{E3BC3C81-26BC-432C-9031-807B6FD23DF3}"/>
+    <hyperlink ref="C84" r:id="rId4" display="javascript:void(0)" xr:uid="{349A0052-9C81-4AA5-AA68-511CEA6F42AB}"/>
+    <hyperlink ref="C86" r:id="rId5" display="javascript:void(0)" xr:uid="{D34A4B47-89EC-4C5B-A5F8-9B6E4D64318E}"/>
+    <hyperlink ref="C87" r:id="rId6" display="javascript:void(0)" xr:uid="{81926179-9CF2-4F63-B349-CD502C41FD83}"/>
+    <hyperlink ref="C90" r:id="rId7" display="javascript:void(0)" xr:uid="{A8AF1ACF-1F4E-4264-B9BE-819A706CC71B}"/>
+    <hyperlink ref="C91" r:id="rId8" display="javascript:void(0)" xr:uid="{7490CBC3-5847-4C5D-B368-3121F54B7595}"/>
+    <hyperlink ref="C93" r:id="rId9" display="javascript:void(0)" xr:uid="{2D2B76B1-1A6D-460B-8203-F16AF32BA3AA}"/>
+    <hyperlink ref="C94" r:id="rId10" display="javascript:void(0)" xr:uid="{1B07C2FC-4235-47FF-A34A-52B322F5D0FA}"/>
+    <hyperlink ref="C95" r:id="rId11" display="javascript:void(0)" xr:uid="{0C999BCD-5E9F-4CC9-AA58-E8A49311C87D}"/>
+    <hyperlink ref="C96" r:id="rId12" display="javascript:void(0)" xr:uid="{C1D3A208-A1A1-4841-9DBC-04DCEC7E2AE3}"/>
+    <hyperlink ref="C99" r:id="rId13" display="javascript:void(0)" xr:uid="{594AE27F-CCAE-4388-B2B6-D114C030ECB7}"/>
+    <hyperlink ref="C101" r:id="rId14" display="javascript:void(0)" xr:uid="{39BA5D8A-8187-4E16-AB55-E0B461A12BBD}"/>
+    <hyperlink ref="C106" r:id="rId15" display="javascript:void(0)" xr:uid="{F9AF438E-E641-492B-99AE-CCD21DD17A18}"/>
+    <hyperlink ref="C112" r:id="rId16" display="javascript:void(0)" xr:uid="{E8ABA0E6-5B3E-4E0B-9FFF-73D9318A53A9}"/>
+    <hyperlink ref="C113" r:id="rId17" display="javascript:void(0)" xr:uid="{73F83D89-7702-46CF-B660-3BFDAC6B0C71}"/>
+    <hyperlink ref="C115" r:id="rId18" display="javascript:void(0)" xr:uid="{5370EF61-2DC0-4749-B758-4FFC5DA0C25E}"/>
+    <hyperlink ref="C120" r:id="rId19" display="javascript:void(0)" xr:uid="{676D3279-E95E-4DE4-BFAC-45D8120E0F9F}"/>
+    <hyperlink ref="C129" r:id="rId20" display="javascript:void(0)" xr:uid="{F10791D2-4F97-4691-BC44-50A7700634DF}"/>
+    <hyperlink ref="C132" r:id="rId21" display="javascript:void(0)" xr:uid="{7D13C19D-8CF9-4804-AF57-77909E2F8196}"/>
+    <hyperlink ref="C133" r:id="rId22" display="javascript:void(0)" xr:uid="{804816A2-C16C-46D2-846A-795BE08C79EF}"/>
+    <hyperlink ref="C134" r:id="rId23" display="javascript:void(0)" xr:uid="{19D952FF-DB00-4D38-B979-B1CD092C1EB4}"/>
+    <hyperlink ref="C136" r:id="rId24" display="javascript:void(0)" xr:uid="{4F63E1A9-396E-401D-B4FE-684160547AFB}"/>
+    <hyperlink ref="C137" r:id="rId25" display="javascript:void(0)" xr:uid="{C95123F8-B396-463E-93EA-DB3BD35D7CE2}"/>
+    <hyperlink ref="C140" r:id="rId26" display="javascript:void(0)" xr:uid="{BA258FB5-DE9F-498E-A562-611800123AA5}"/>
+    <hyperlink ref="C141" r:id="rId27" display="javascript:void(0)" xr:uid="{080567E8-ECAC-43C4-91F1-A02E9125D40C}"/>
+    <hyperlink ref="C143" r:id="rId28" display="javascript:void(0)" xr:uid="{E16B25F9-8B5A-4D1A-9388-5BC3E47FC9DB}"/>
+    <hyperlink ref="C144" r:id="rId29" display="javascript:void(0)" xr:uid="{4634380D-0E6A-4EED-A1F7-EFBF55C7BF0F}"/>
+    <hyperlink ref="C145" r:id="rId30" display="javascript:void(0)" xr:uid="{D98693B3-2089-4B12-8641-6C6DDEA9C2A7}"/>
+    <hyperlink ref="C146" r:id="rId31" display="javascript:void(0)" xr:uid="{1499C596-5845-4CDE-9B83-D5E431B51EBF}"/>
+    <hyperlink ref="C151" r:id="rId32" display="javascript:void(0)" xr:uid="{2B32E2E0-0015-4767-BAB2-DC680CFB200F}"/>
+    <hyperlink ref="C156" r:id="rId33" display="javascript:void(0)" xr:uid="{E667DAD1-F258-48E9-8884-EE4DC5745C4C}"/>
+    <hyperlink ref="C162" r:id="rId34" display="javascript:void(0)" xr:uid="{B42BD891-9AA7-42CD-9E24-0ADC6D3829EB}"/>
+    <hyperlink ref="C163" r:id="rId35" display="javascript:void(0)" xr:uid="{74434734-1B78-4167-B859-494F1FDBBE6C}"/>
+    <hyperlink ref="C165" r:id="rId36" display="javascript:void(0)" xr:uid="{A1B6AC30-E543-4E49-A5A6-6F525912BAC5}"/>
+    <hyperlink ref="C170" r:id="rId37" display="javascript:void(0)" xr:uid="{FD188376-9528-41C1-96F1-642D130DFA29}"/>
+    <hyperlink ref="C179" r:id="rId38" display="javascript:void(0)" xr:uid="{89E839B9-A152-43C1-8C7B-B5D845CA50E1}"/>
+    <hyperlink ref="C182" r:id="rId39" display="javascript:void(0)" xr:uid="{0E75E7B5-CE82-461F-BD5F-43D0F10307BA}"/>
+    <hyperlink ref="C183" r:id="rId40" display="javascript:void(0)" xr:uid="{BAC240C9-3082-4E4F-9B49-FB03F056DC29}"/>
+    <hyperlink ref="C184" r:id="rId41" display="javascript:void(0)" xr:uid="{B60A7BDE-2DE2-4BED-A93F-0EC54B60270B}"/>
+    <hyperlink ref="C186" r:id="rId42" display="javascript:void(0)" xr:uid="{02A99FBE-C031-4C3A-9A3D-261244E7ABC3}"/>
+    <hyperlink ref="C187" r:id="rId43" display="javascript:void(0)" xr:uid="{4853FF40-5A59-4D5A-BCF1-46845C129BE2}"/>
+    <hyperlink ref="C190" r:id="rId44" display="javascript:void(0)" xr:uid="{FE3D209F-F888-4C74-8D9A-D523CD3F0B66}"/>
+    <hyperlink ref="C191" r:id="rId45" display="javascript:void(0)" xr:uid="{BBCE26DA-A4A8-4F3C-A06A-AC38C9E3CDAC}"/>
+    <hyperlink ref="C193" r:id="rId46" display="javascript:void(0)" xr:uid="{A9F81F5E-D98C-4EDD-945A-970095EF45E6}"/>
+    <hyperlink ref="C194" r:id="rId47" display="javascript:void(0)" xr:uid="{710A790C-135A-44C2-B3E7-493BF21AA574}"/>
+    <hyperlink ref="C195" r:id="rId48" display="javascript:void(0)" xr:uid="{8C87762C-34DC-4C51-804E-89BCE75DEBF3}"/>
+    <hyperlink ref="C196" r:id="rId49" display="javascript:void(0)" xr:uid="{D6124AC8-262C-42B3-94F4-7531002CB9E2}"/>
+    <hyperlink ref="C201" r:id="rId50" display="javascript:void(0)" xr:uid="{62F015C0-A86A-428B-869F-F5670CD8F60F}"/>
+    <hyperlink ref="C206" r:id="rId51" display="javascript:void(0)" xr:uid="{FD283BE5-E0DD-4052-88B7-00DFBDEDE268}"/>
+    <hyperlink ref="C212" r:id="rId52" display="javascript:void(0)" xr:uid="{9087F27F-D50F-4C92-A71D-9566A7E913A9}"/>
+    <hyperlink ref="C213" r:id="rId53" display="javascript:void(0)" xr:uid="{A37D6D28-9F6F-44C6-B371-B7CEE3F3299D}"/>
+    <hyperlink ref="C215" r:id="rId54" display="javascript:void(0)" xr:uid="{B2612587-A888-489F-9430-2D07FADFFE2E}"/>
+    <hyperlink ref="C220" r:id="rId55" display="javascript:void(0)" xr:uid="{128452FB-70AE-411C-A23A-6ED45E829012}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId56"/>

--- a/myStudies/RothProblem.xlsx
+++ b/myStudies/RothProblem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkrat\git\MyStudiesRepo\myStudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4950CFA6-B21E-4243-8862-BCE1942769FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1F91B2-1AE1-43C1-BA57-B55A67FE290D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="735" activeTab="1" xr2:uid="{61290AE9-9247-4055-A5C3-1005466886B7}"/>
   </bookViews>
@@ -41,6 +41,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thomas Kratzke</author>
+  </authors>
+  <commentList>
+    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{92DBAD28-46AE-46F9-A52C-B4AC725806DE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Thomas Kratzke:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Added Fidelity JWROS, BofA Checking/Savings, and withheld 50K
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - https://secure tsp gov/components/CORS/getSharePrices html?G=1" description="Connection to the 'https://secure tsp gov/components/CORS/getSharePrices html?G=1' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
@@ -348,7 +383,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +586,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -2021,11 +2069,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8746EC-93A7-4CC1-BFC6-CA309B41AD35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8746EC-93A7-4CC1-BFC6-CA309B41AD35}">
   <dimension ref="A1:E269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,7 +2383,7 @@
       </c>
       <c r="B39" s="6">
         <f>0.99*B54</f>
-        <v>111182.23710000001</v>
+        <v>97186.013099999967</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2343,8 +2391,7 @@
         <v>87</v>
       </c>
       <c r="B40" s="6">
-        <f>B53-193342.75</f>
-        <v>-193342.75</v>
+        <v>115839.47999999998</v>
       </c>
       <c r="C40" s="1"/>
     </row>
@@ -2451,8 +2498,8 @@
         <v>88</v>
       </c>
       <c r="B54" s="6">
-        <f>22395.01+124910.28-35000</f>
-        <v>112305.29000000001</v>
+        <f>125772.62+20964.46+1430.61-50000</f>
+        <v>98167.689999999973</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -4571,6 +4618,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId56"/>
+  <legacyDrawing r:id="rId57"/>
 </worksheet>
 </file>
 

--- a/myStudies/RothProblem.xlsx
+++ b/myStudies/RothProblem.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkrat\git\MyStudiesRepo\myStudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4779E01A-6993-48AF-980A-2840C189DD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA63DB1B-6E23-4E6A-8EF3-0AAA537235CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="735" activeTab="1" xr2:uid="{61290AE9-9247-4055-A5C3-1005466886B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="735" activeTab="2" xr2:uid="{61290AE9-9247-4055-A5C3-1005466886B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Year Parameters" sheetId="39" r:id="rId1"/>
     <sheet name="Owners and Accounts" sheetId="40" r:id="rId2"/>
-    <sheet name="JNT.AC.USA" sheetId="42" r:id="rId3"/>
-    <sheet name="JNT.AC.INT" sheetId="43" r:id="rId4"/>
-    <sheet name="JNT.AC.INV" sheetId="44" r:id="rId5"/>
+    <sheet name="Current Year Tax Info" sheetId="45" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="OI_ROW" localSheetId="0">_xlfn.XMATCH(#REF!,'Current Year Parameters'!#REF!,-1,2)</definedName>
@@ -53,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="104">
   <si>
     <t>Interest Income</t>
   </si>
@@ -331,180 +329,6 @@
     <t>JNT.AC.BoA</t>
   </si>
   <si>
-    <t>TOTALS</t>
-  </si>
-  <si>
-    <t>SPAXX (Core account)</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Holding Period</t>
-  </si>
-  <si>
-    <t>Date Acquired</t>
-  </si>
-  <si>
-    <t>Unrealized % G/L</t>
-  </si>
-  <si>
-    <t>Unrealized G/L</t>
-  </si>
-  <si>
-    <t>Cost Basis/Share</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>ASSOCIATED LOTS</t>
-  </si>
-  <si>
-    <t>10.835 - 24.08</t>
-  </si>
-  <si>
-    <t>20.12 - 20.55</t>
-  </si>
-  <si>
-    <t>OGN</t>
-  </si>
-  <si>
-    <t>309.45 - 461.02</t>
-  </si>
-  <si>
-    <t>457.88 - 461.02</t>
-  </si>
-  <si>
-    <t>9:00 AM ET</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>99.14 - 134.63</t>
-  </si>
-  <si>
-    <t>125.30 - 127.94</t>
-  </si>
-  <si>
-    <t>8:09 AM ET</t>
-  </si>
-  <si>
-    <t>MRK</t>
-  </si>
-  <si>
-    <t>143.13 - 175.97</t>
-  </si>
-  <si>
-    <t>144.74 - 146.65</t>
-  </si>
-  <si>
-    <t>JNJ</t>
-  </si>
-  <si>
-    <t>64.66 - 84.33</t>
-  </si>
-  <si>
-    <t>80.69 - 81.19</t>
-  </si>
-  <si>
-    <t>IWR</t>
-  </si>
-  <si>
-    <t>102.64 - 132.36</t>
-  </si>
-  <si>
-    <t>128.07 - 129.07</t>
-  </si>
-  <si>
-    <t>IJT</t>
-  </si>
-  <si>
-    <t>87.3201 - 111.57</t>
-  </si>
-  <si>
-    <t>106.17 - 106.97</t>
-  </si>
-  <si>
-    <t>IJR</t>
-  </si>
-  <si>
-    <t>61.15 - 76.20</t>
-  </si>
-  <si>
-    <t>73.4459 - 73.82</t>
-  </si>
-  <si>
-    <t>IEFA</t>
-  </si>
-  <si>
-    <t>Earnings Date</t>
-  </si>
-  <si>
-    <t>% G/L</t>
-  </si>
-  <si>
-    <t>G/L</t>
-  </si>
-  <si>
-    <t>% Tdy G/L</t>
-  </si>
-  <si>
-    <t>Tdy G/L</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Purchase Price</t>
-  </si>
-  <si>
-    <t>52 Wk Range</t>
-  </si>
-  <si>
-    <t>Day Range</t>
-  </si>
-  <si>
-    <t>News</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Ask</t>
-  </si>
-  <si>
-    <t>Bid</t>
-  </si>
-  <si>
-    <t>% Chg</t>
-  </si>
-  <si>
-    <t>Chg</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>% Ext Hrs Chg</t>
-  </si>
-  <si>
-    <t>$ Ext Hrs Chg</t>
-  </si>
-  <si>
-    <t>Ext Hrs Last</t>
-  </si>
-  <si>
-    <t>Symbol</t>
-  </si>
-  <si>
-    <t>07/05/2024 09:26:29 AM ET</t>
-  </si>
-  <si>
-    <t>Positions: Joint WROS - TOD (X82865374)</t>
-  </si>
-  <si>
     <t>Current Value</t>
   </si>
   <si>
@@ -524,6 +348,21 @@
   </si>
   <si>
     <t>Income as % of Income Re-Invested</t>
+  </si>
+  <si>
+    <t>Joint Wros</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Short Term</t>
+  </si>
+  <si>
+    <t>Long Term</t>
+  </si>
+  <si>
+    <t>Tax Adv US SMA</t>
   </si>
 </sst>
 </file>
@@ -537,7 +376,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,6 +553,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFD41118"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD41118"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -909,7 +767,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1065,6 +923,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1115,7 +982,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1197,9 +1064,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1214,6 +1081,57 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="20" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="44" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="21" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="21" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="44" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="26" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1282,491 +1200,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5121" name="AutoShape 1" descr="Wash Sale Icon">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF2DED9-2B27-EB93-E51D-A67BC41D15D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4267200" y="25003125"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5122" name="AutoShape 2" descr="52-Week-Indicator is at 99.84%">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B8765A-E61C-1FC9-69CF-8820218F8BDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="42557700"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5123" name="AutoShape 3" descr="52-Week-Indicator is at 75.26%">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0B65DA-AD09-BE37-111D-C256C15EAC2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="45234225"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5124" name="AutoShape 4" descr="52-Week-Indicator is at 83.92%">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653532F2-6E84-AE78-03F9-D6D611EB4496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="47529750"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5125" name="AutoShape 5" descr="52-Week-Indicator is at 78.43%">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19AE38F2-3753-1820-774C-A2B442B161B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="49825275"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5126" name="AutoShape 6" descr="Wash Sale Icon">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E56296-7ECF-45F2-91B3-3FD4B5A7604E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="51920775"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5127" name="AutoShape 7" descr="52-Week-Indicator is at 86.2%">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0AD12DE-09FF-2B05-F714-F57159E72367}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="52120800"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5128" name="AutoShape 8" descr="52-Week-Indicator is at 82.21%">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5626C374-8727-D05A-472A-7F40D71C3AD5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="54416325"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5129" name="AutoShape 9" descr="52-Week-Indicator is at 7.8%">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41963CE-A01B-9F3F-7E14-94C41DA97BDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="56711850"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5130" name="AutoShape 10" descr="52-Week-Indicator is at 71.53%">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0EB6689-5C99-FEF8-057A-BA521C8F1C8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="59007375"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2069,7 +1502,7 @@
   <dimension ref="A1:H235"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:B68"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,10 +1522,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2135,10 +1568,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2173,10 +1606,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="38"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
@@ -2210,7 +1643,7 @@
         <v>383900</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>0.32</v>
       </c>
@@ -2218,7 +1651,7 @@
         <v>487450</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>0.35</v>
       </c>
@@ -2226,68 +1659,72 @@
         <v>731200</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>0.37</v>
       </c>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="str">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="str">
         <f>_xlfn.CONCAT(A12," 2026")</f>
         <v>Ordinary Rates 2026</v>
       </c>
-      <c r="B20" s="40"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="38"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>0.1</v>
       </c>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>0.15</v>
       </c>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>0.25</v>
       </c>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>0.28000000000000003</v>
       </c>
       <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <f>(A40-1)*(2*12*B9)</f>
+        <v>6708.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>0.33</v>
       </c>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>0.35</v>
       </c>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>0.39600000000000002</v>
       </c>
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="40"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="38"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>0</v>
       </c>
@@ -2295,7 +1732,7 @@
         <v>94050</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>0.15</v>
       </c>
@@ -2303,17 +1740,17 @@
         <v>583750</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>0.2</v>
       </c>
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="40"/>
+      <c r="B32" s="38"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
@@ -2338,10 +1775,10 @@
       <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="40"/>
+      <c r="B36" s="38"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
@@ -2391,10 +1828,10 @@
       <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="40"/>
+      <c r="B43" s="38"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
@@ -2591,10 +2028,10 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="42"/>
+      <c r="B68" s="40"/>
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2638,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E76ACA-50AD-44D7-AB75-CC74A26DA038}">
   <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2657,10 +2094,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2697,10 +2134,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2725,10 +2162,10 @@
       <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="36"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -2764,10 +2201,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="36"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -2795,10 +2232,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="36"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -2825,10 +2262,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="38"/>
+      <c r="B23" s="36"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -2847,10 +2284,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="38"/>
+      <c r="B26" s="36"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -2863,15 +2300,15 @@
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B29" s="5">
         <v>40610.959999999999</v>
@@ -2903,7 +2340,10 @@
       <c r="B32" s="2">
         <v>17.2</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="35">
+        <f>B31/B32+290000+B16+B11+B27+75000</f>
+        <v>485051.92906976747</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -2915,15 +2355,15 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="38"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B35" s="5">
         <v>1970046.2100000002</v>
@@ -2946,15 +2386,15 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="38"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B39" s="5">
         <v>1009000</v>
@@ -2978,14 +2418,14 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="38"/>
+      <c r="B42" s="36"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B43" s="5">
         <v>310024.56999999995</v>
@@ -2993,7 +2433,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="B44" s="5">
         <v>100000</v>
@@ -3001,7 +2441,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="B45" s="7">
         <v>0.05</v>
@@ -3010,7 +2450,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="B46" s="7">
         <v>0.08</v>
@@ -3019,7 +2459,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="B47" s="7">
         <v>0.03</v>
@@ -3028,7 +2468,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="B48" s="7">
         <v>0.02</v>
@@ -3037,7 +2477,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="B49" s="7">
         <v>0.04</v>
@@ -3045,14 +2485,14 @@
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="38"/>
+      <c r="B50" s="36"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B51" s="6">
         <v>649728.07000000007</v>
@@ -3067,20 +2507,20 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="42"/>
+      <c r="B53" s="40"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="38"/>
+      <c r="B55" s="36"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -3771,1107 +3211,799 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A05454-6C22-4808-8894-C2A89CDBBDC7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2975635C-74C3-4ED3-85A2-DDB645904B01}">
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D618011E-9A97-457D-AEBE-A2A00015444E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455D7C0F-CD6C-4DB6-AE0A-F642FCFFAEED}">
-  <dimension ref="A1:U39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>4541.92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>4541.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" t="s">
-        <v>145</v>
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>4541.92</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4">
+        <v>4541.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>75436.960000000006</v>
+      </c>
+      <c r="D13">
+        <v>75436.960000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>75436.960000000006</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>75436.960000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>4541.92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25">
+        <v>4541.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>2902.52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>2902.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>1639.4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>1639.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="O4" t="s">
-        <v>134</v>
-      </c>
-      <c r="P4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R4" t="s">
-        <v>131</v>
-      </c>
-      <c r="S4" t="s">
-        <v>130</v>
-      </c>
-      <c r="T4" t="s">
-        <v>129</v>
-      </c>
-      <c r="U4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5">
-        <v>74.42</v>
-      </c>
-      <c r="C5">
-        <v>0.64</v>
-      </c>
-      <c r="D5">
-        <v>0.87</v>
-      </c>
-      <c r="E5">
-        <v>73.78</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>74.319999999999993</v>
-      </c>
-      <c r="I5">
-        <v>74.42</v>
-      </c>
-      <c r="J5" s="37">
-        <v>54422</v>
-      </c>
-      <c r="L5" t="s">
-        <v>126</v>
-      </c>
-      <c r="M5" t="s">
-        <v>125</v>
-      </c>
-      <c r="N5">
-        <v>483</v>
-      </c>
-      <c r="O5">
-        <v>60.57</v>
-      </c>
-      <c r="P5">
-        <v>35635.74</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="B45" s="1">
+        <v>4541.92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <v>4541.92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="1">
+        <v>75436.960000000006</v>
+      </c>
+      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47">
+        <v>75436.960000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="53"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="42">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="44"/>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="46">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A61" s="54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A62" s="55">
+        <v>-1148.6199999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="56">
+        <v>-1149.78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="49">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A65" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="R5" t="s">
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="35">
-        <v>6382.83</v>
-      </c>
-      <c r="T5">
-        <v>21.82</v>
-      </c>
-      <c r="U5" t="s">
+    </row>
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>483</v>
-      </c>
-      <c r="B8">
-        <v>60.57</v>
-      </c>
-      <c r="C8" s="35">
-        <v>6382.83</v>
-      </c>
-      <c r="D8">
-        <v>21.82</v>
-      </c>
-      <c r="E8" s="36">
-        <v>43609</v>
-      </c>
-      <c r="F8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9">
-        <v>106.04</v>
-      </c>
-      <c r="C9">
-        <v>-0.3</v>
-      </c>
-      <c r="D9">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="E9">
-        <v>106.34</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>105.83</v>
-      </c>
-      <c r="I9">
-        <v>106.77</v>
-      </c>
-      <c r="J9">
-        <v>874</v>
-      </c>
-      <c r="L9" t="s">
-        <v>123</v>
-      </c>
-      <c r="M9" t="s">
-        <v>122</v>
-      </c>
-      <c r="N9">
-        <v>281</v>
-      </c>
-      <c r="O9">
-        <v>81.290000000000006</v>
-      </c>
-      <c r="P9">
-        <v>29881.54</v>
-      </c>
-      <c r="Q9" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="R9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" s="35">
-        <v>7039.05</v>
-      </c>
-      <c r="T9">
-        <v>30.82</v>
-      </c>
-      <c r="U9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>281</v>
-      </c>
-      <c r="B12">
-        <v>81.290000000000006</v>
-      </c>
-      <c r="C12" s="35">
-        <v>7039.05</v>
-      </c>
-      <c r="D12">
-        <v>30.82</v>
-      </c>
-      <c r="E12" s="36">
-        <v>43803</v>
-      </c>
-      <c r="F12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13">
-        <v>121.85</v>
-      </c>
-      <c r="C13">
-        <v>-6.41</v>
-      </c>
-      <c r="D13">
-        <v>-5</v>
-      </c>
-      <c r="E13">
-        <v>128.26</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>120.93</v>
-      </c>
-      <c r="I13">
-        <v>135.54</v>
-      </c>
-      <c r="J13">
-        <v>139</v>
-      </c>
-      <c r="L13" t="s">
-        <v>120</v>
-      </c>
-      <c r="M13" t="s">
-        <v>119</v>
-      </c>
-      <c r="N13">
-        <v>180</v>
-      </c>
-      <c r="O13">
-        <v>90.19</v>
-      </c>
-      <c r="P13">
-        <v>23086.799999999999</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>44</v>
-      </c>
-      <c r="R13" t="s">
-        <v>44</v>
-      </c>
-      <c r="S13" s="35">
-        <v>6852.55</v>
-      </c>
-      <c r="T13">
-        <v>42.21</v>
-      </c>
-      <c r="U13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>140</v>
-      </c>
-      <c r="B16">
-        <v>86.22</v>
-      </c>
-      <c r="C16" s="35">
-        <v>5885.6</v>
-      </c>
-      <c r="D16">
-        <v>48.76</v>
-      </c>
-      <c r="E16" s="36">
-        <v>43999</v>
-      </c>
-      <c r="F16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>104.09</v>
-      </c>
-      <c r="C17">
-        <v>966.95</v>
-      </c>
-      <c r="D17">
-        <v>23.22</v>
-      </c>
-      <c r="E17" s="36">
-        <v>43795</v>
-      </c>
-      <c r="F17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18">
-        <v>80.83</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>80.83</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>80.709999999999994</v>
-      </c>
-      <c r="I18">
-        <v>81.11</v>
-      </c>
-      <c r="J18">
-        <v>30</v>
-      </c>
-      <c r="L18" t="s">
-        <v>117</v>
-      </c>
-      <c r="M18" t="s">
-        <v>116</v>
-      </c>
-      <c r="N18">
-        <v>280</v>
-      </c>
-      <c r="O18">
-        <v>53.83</v>
-      </c>
-      <c r="P18">
-        <v>22632.400000000001</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>44</v>
-      </c>
-      <c r="R18" t="s">
-        <v>44</v>
-      </c>
-      <c r="S18" s="35">
-        <v>7560</v>
-      </c>
-      <c r="T18">
-        <v>50.16</v>
-      </c>
-      <c r="U18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>280</v>
-      </c>
-      <c r="B21">
-        <v>53.83</v>
-      </c>
-      <c r="C21" s="35">
-        <v>7560</v>
-      </c>
-      <c r="D21">
-        <v>50.16</v>
-      </c>
-      <c r="E21" s="36">
-        <v>43609</v>
-      </c>
-      <c r="F21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22">
-        <v>145.80000000000001</v>
-      </c>
-      <c r="C22">
-        <v>0.11</v>
-      </c>
-      <c r="D22">
-        <v>0.08</v>
-      </c>
-      <c r="E22">
-        <v>145.69</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>145.62</v>
-      </c>
-      <c r="I22">
-        <v>145.83000000000001</v>
-      </c>
-      <c r="J22" s="37">
-        <v>8659</v>
-      </c>
-      <c r="L22" t="s">
-        <v>114</v>
-      </c>
-      <c r="M22" t="s">
-        <v>113</v>
-      </c>
-      <c r="N22">
-        <v>100</v>
-      </c>
-      <c r="O22">
-        <v>49.97</v>
-      </c>
-      <c r="P22">
-        <v>14569</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>44</v>
-      </c>
-      <c r="R22" t="s">
-        <v>44</v>
-      </c>
-      <c r="S22" s="35">
-        <v>9572.01</v>
-      </c>
-      <c r="T22">
-        <v>191.56</v>
-      </c>
-      <c r="U22" s="36">
-        <v>45490</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>100</v>
-      </c>
-      <c r="B25">
-        <v>49.97</v>
-      </c>
-      <c r="C25" s="35">
-        <v>9572.01</v>
-      </c>
-      <c r="D25">
-        <v>191.56</v>
-      </c>
-      <c r="E25" s="36">
-        <v>37855</v>
-      </c>
-      <c r="F25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26">
-        <v>126.005</v>
-      </c>
-      <c r="C26">
-        <v>0.155</v>
-      </c>
-      <c r="D26">
-        <v>0.12</v>
-      </c>
-      <c r="E26">
-        <v>125.85</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>125.5</v>
-      </c>
-      <c r="I26">
-        <v>126.5</v>
-      </c>
-      <c r="J26" s="37">
-        <v>2369</v>
-      </c>
-      <c r="K26" t="s">
-        <v>111</v>
-      </c>
-      <c r="L26" t="s">
-        <v>110</v>
-      </c>
-      <c r="M26" t="s">
-        <v>109</v>
-      </c>
-      <c r="N26">
-        <v>400</v>
-      </c>
-      <c r="O26">
-        <v>48.31</v>
-      </c>
-      <c r="P26">
-        <v>50340</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>44</v>
-      </c>
-      <c r="R26" t="s">
-        <v>44</v>
-      </c>
-      <c r="S26" s="35">
-        <v>31015.45</v>
-      </c>
-      <c r="T26">
-        <v>160.5</v>
-      </c>
-      <c r="U26" s="36">
-        <v>45503</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>400</v>
-      </c>
-      <c r="B29">
-        <v>48.31</v>
-      </c>
-      <c r="C29" s="35">
-        <v>31015.45</v>
-      </c>
-      <c r="D29">
-        <v>160.5</v>
-      </c>
-      <c r="E29" s="36">
-        <v>42290</v>
-      </c>
-      <c r="F29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30">
-        <v>460.21</v>
-      </c>
-      <c r="C30">
-        <v>-0.56000000000000005</v>
-      </c>
-      <c r="D30">
-        <v>-0.12</v>
-      </c>
-      <c r="E30">
-        <v>460.77</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>460.2</v>
-      </c>
-      <c r="I30">
-        <v>460.26</v>
-      </c>
-      <c r="J30" s="37">
-        <v>378498</v>
-      </c>
-      <c r="K30" t="s">
-        <v>107</v>
-      </c>
-      <c r="L30" t="s">
-        <v>106</v>
-      </c>
-      <c r="M30" t="s">
-        <v>105</v>
-      </c>
-      <c r="N30">
-        <v>300</v>
-      </c>
-      <c r="O30">
-        <v>23.83</v>
-      </c>
-      <c r="P30">
-        <v>138231</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>44</v>
-      </c>
-      <c r="R30" t="s">
-        <v>44</v>
-      </c>
-      <c r="S30" s="35">
-        <v>131082.51</v>
-      </c>
-      <c r="T30" s="35">
-        <v>1833.71</v>
-      </c>
-      <c r="U30" s="36">
-        <v>45496</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>300</v>
-      </c>
-      <c r="B33">
-        <v>23.83</v>
-      </c>
-      <c r="C33" s="35">
-        <v>131082.51</v>
-      </c>
-      <c r="D33" s="35">
-        <v>1833.71</v>
-      </c>
-      <c r="E33" s="36">
-        <v>37658</v>
-      </c>
-      <c r="F33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34">
-        <v>20.32</v>
-      </c>
-      <c r="C34">
-        <v>0.01</v>
-      </c>
-      <c r="D34">
-        <v>0.05</v>
-      </c>
-      <c r="E34">
-        <v>20.309999999999999</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>20.309999999999999</v>
-      </c>
-      <c r="I34">
-        <v>21.01</v>
-      </c>
-      <c r="J34">
-        <v>4</v>
-      </c>
-      <c r="L34" t="s">
-        <v>103</v>
-      </c>
-      <c r="M34" t="s">
-        <v>102</v>
-      </c>
-      <c r="N34">
-        <v>40</v>
-      </c>
-      <c r="O34">
-        <v>24.19</v>
-      </c>
-      <c r="P34">
-        <v>812.4</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>44</v>
-      </c>
-      <c r="R34" t="s">
-        <v>44</v>
-      </c>
-      <c r="S34">
-        <v>-155</v>
-      </c>
-      <c r="T34">
-        <v>-16.02</v>
-      </c>
-      <c r="U34" s="36">
-        <v>45510</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>40</v>
-      </c>
-      <c r="B37">
-        <v>24.18</v>
-      </c>
-      <c r="C37">
-        <v>-155</v>
-      </c>
-      <c r="D37">
-        <v>-16.02</v>
-      </c>
-      <c r="E37" s="36">
-        <v>42290</v>
-      </c>
-      <c r="F37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>44</v>
-      </c>
-      <c r="L38" t="s">
-        <v>44</v>
-      </c>
-      <c r="N38" s="35">
-        <v>126318.94</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>126318.94</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>44</v>
-      </c>
-      <c r="R38" t="s">
-        <v>44</v>
-      </c>
-      <c r="S38" t="s">
-        <v>44</v>
-      </c>
-      <c r="T38" t="s">
-        <v>44</v>
-      </c>
-      <c r="U38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>92</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>441507.82</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>44</v>
-      </c>
-      <c r="R39" t="s">
-        <v>44</v>
-      </c>
-      <c r="S39" s="35">
-        <v>199349.4</v>
-      </c>
-      <c r="T39">
-        <v>172.09</v>
+    </row>
+    <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A70" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="49">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A50:B50"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A52" r:id="rId1" display="javascript:void(0)" xr:uid="{4675DE9B-AE5B-4652-8FE9-9BCE10FBE401}"/>
+    <hyperlink ref="A55" r:id="rId2" display="javascript:void(0)" xr:uid="{5723C74E-E4A2-410D-87F0-99A3A2F509BA}"/>
+    <hyperlink ref="A56" r:id="rId3" display="javascript:void(0)" xr:uid="{4257DF38-4119-4B5F-B23A-7707AF920A52}"/>
+    <hyperlink ref="A57" r:id="rId4" display="javascript:void(0)" xr:uid="{FFA45F7C-DA21-4B94-AAD9-B78AB81EED94}"/>
+    <hyperlink ref="A59" r:id="rId5" display="javascript:void(0)" xr:uid="{01F1C6DD-6413-430F-B2EE-198DFB91063B}"/>
+    <hyperlink ref="A60" r:id="rId6" display="javascript:void(0)" xr:uid="{288081C4-A4DF-4DAD-9243-97675A9ECBFB}"/>
+    <hyperlink ref="A63" r:id="rId7" display="javascript:void(0)" xr:uid="{FD921898-6DF8-40E3-9207-EB8B4E549D7A}"/>
+    <hyperlink ref="A64" r:id="rId8" display="javascript:void(0)" xr:uid="{A562AEF9-4D32-47FC-8D0E-370FD0470214}"/>
+    <hyperlink ref="A66" r:id="rId9" display="javascript:void(0)" xr:uid="{F7B383B2-6884-4AEE-9515-BD8555012B25}"/>
+    <hyperlink ref="A67" r:id="rId10" display="javascript:void(0)" xr:uid="{59E15290-449D-4801-A815-C542F7FD034B}"/>
+    <hyperlink ref="A68" r:id="rId11" display="javascript:void(0)" xr:uid="{8B7CA53B-C7F1-4A4A-AFB1-3668B4C2F505}"/>
+    <hyperlink ref="A69" r:id="rId12" display="javascript:void(0)" xr:uid="{7D8BE727-F452-4283-B084-5CCAE1051C29}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
